--- a/Networks/Parte3/Excel/Network32.xlsx
+++ b/Networks/Parte3/Excel/Network32.xlsx
@@ -604,100 +604,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.283627600457133</v>
+        <v>-2.261795251125946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9297363645956241</v>
+        <v>3.469227499330986</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.686696638607294</v>
+        <v>-2.970494595927072</v>
       </c>
       <c r="E2" t="n">
-        <v>1.441846876715619</v>
+        <v>-1.98175471207303</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.485995111953581</v>
+        <v>-1.047409869265188</v>
       </c>
       <c r="G2" t="n">
-        <v>2.432807168997529</v>
+        <v>1.134161045634381</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7111186378531211</v>
+        <v>-2.9853181964774</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.894156831658904</v>
+        <v>-2.325672633928069</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.25811915223374</v>
+        <v>-2.346452750241886</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.59458871948544</v>
+        <v>-2.399445279447475</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0884289396761815</v>
+        <v>-2.627442239487996</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.149290151829396</v>
+        <v>-1.595334352346349</v>
       </c>
       <c r="N2" t="n">
-        <v>1.872951428040793</v>
+        <v>-6.53831378304394</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.819796455047079</v>
+        <v>2.37881762182763</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.135605067975437</v>
+        <v>-5.60274389496132</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.065784150863146</v>
+        <v>-4.081883823045482</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.308166038673692</v>
+        <v>-1.846722940211394</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.415925710391335</v>
+        <v>0.01939347588856905</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.153176767839366</v>
+        <v>-0.8097859297809955</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.652147138226449</v>
+        <v>0.6612325492186464</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1182147741013643</v>
+        <v>-4.696732106531176</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.270275742980812</v>
+        <v>-2.194597206293158</v>
       </c>
       <c r="X2" t="n">
-        <v>-7.107303751766908</v>
+        <v>-4.540216262711889</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.425417363732026</v>
+        <v>-0.6710197120872</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8097963223018779</v>
+        <v>0.8441838179695597</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.122389469412419</v>
+        <v>3.361446942205484</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.795859448410108</v>
+        <v>-5.123128266223919</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1675390188525854</v>
+        <v>-3.086238932508377</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.056790183967596</v>
+        <v>-1.201777898653041</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7418499157082081</v>
+        <v>-0.808823515873775</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.112352735703908</v>
+        <v>-2.714767648248415</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.258163792834213</v>
+        <v>3.672563830264617</v>
       </c>
     </row>
     <row r="3">
@@ -707,100 +707,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.061037134303769</v>
+        <v>-0.9360113651385352</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1479830555991929</v>
+        <v>1.590583653815456</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2971387432901887</v>
+        <v>1.573289232364692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6445719480588681</v>
+        <v>1.721314392337103</v>
       </c>
       <c r="F3" t="n">
-        <v>3.52464097556768</v>
+        <v>0.6798620255590375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4203281583162338</v>
+        <v>-1.161082146772302</v>
       </c>
       <c r="H3" t="n">
-        <v>1.175129939780679</v>
+        <v>0.2435648983919629</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57392936902147</v>
+        <v>0.08434402696186957</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5320182852991134</v>
+        <v>-1.475519910295189</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.082036428813513</v>
+        <v>-1.669727218562321</v>
       </c>
       <c r="L3" t="n">
-        <v>2.243940536461108</v>
+        <v>-0.2922753371186694</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.556505082611477</v>
+        <v>0.3004055742997055</v>
       </c>
       <c r="N3" t="n">
-        <v>5.419066346316116</v>
+        <v>-1.696143938823603</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.20122231477413</v>
+        <v>0.04161147985694724</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.481453714378087</v>
+        <v>-1.883713351877031</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5199841399592884</v>
+        <v>-0.6577899883502684</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.5994317048716635</v>
+        <v>-1.732865897867941</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.6295042244382049</v>
+        <v>0.1633758124921997</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.556954355895622</v>
+        <v>-3.651621280947812</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.2914337257128589</v>
+        <v>4.550527104207581</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.448819912598832</v>
+        <v>3.833862377898478</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.04046971432743986</v>
+        <v>-0.5553306007487665</v>
       </c>
       <c r="X3" t="n">
-        <v>0.673626514296141</v>
+        <v>-1.857694880962946</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.2592957379054</v>
+        <v>2.231090743880248</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2346738170889006</v>
+        <v>-0.9157077595426705</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.20788509504687</v>
+        <v>0.8940297171808818</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.649071391774857</v>
+        <v>-2.896445720393635</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.523278231340647</v>
+        <v>-0.7412618547043901</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.225284975383954</v>
+        <v>0.6821513750389773</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.194544249964986</v>
+        <v>0.1332836543417268</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0899857625891987</v>
+        <v>2.06678914906453</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.28634224381615</v>
+        <v>1.864163530953805</v>
       </c>
     </row>
     <row r="4">
@@ -810,100 +810,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.270192970702642</v>
+        <v>-3.229590302016561</v>
       </c>
       <c r="C4" t="n">
-        <v>3.383480666697493</v>
+        <v>0.806449310492301</v>
       </c>
       <c r="D4" t="n">
-        <v>3.051607389054762</v>
+        <v>1.996986465159093</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.63080912676697</v>
+        <v>1.072199996556058</v>
       </c>
       <c r="F4" t="n">
-        <v>1.918659733768797</v>
+        <v>-7.44208353146236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8912242054134653</v>
+        <v>-2.479307022656409</v>
       </c>
       <c r="H4" t="n">
-        <v>3.500828355941505</v>
+        <v>-2.211261994781599</v>
       </c>
       <c r="I4" t="n">
-        <v>2.701583352912942</v>
+        <v>2.624096971340521</v>
       </c>
       <c r="J4" t="n">
-        <v>2.197192335867387</v>
+        <v>0.4718813522139925</v>
       </c>
       <c r="K4" t="n">
-        <v>2.247692765490723</v>
+        <v>-6.848916548705906</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.215049670794676</v>
+        <v>7.072620020738106</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9129617413856151</v>
+        <v>1.77032562860379</v>
       </c>
       <c r="N4" t="n">
-        <v>2.128996488709543</v>
+        <v>0.9327441156591061</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.239388599525072</v>
+        <v>-3.303079932463307</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.2346691506661</v>
+        <v>6.672679825081913</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.695161836496407</v>
+        <v>-1.441007514868104</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8006518035507753</v>
+        <v>1.341979504531376</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.642006218873726</v>
+        <v>0.2571736316250528</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.451490429914907</v>
+        <v>0.3678035760245541</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.06216190597221964</v>
+        <v>2.258050411230768</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.366036780322268</v>
+        <v>1.929699418405</v>
       </c>
       <c r="W4" t="n">
-        <v>4.381215319249594</v>
+        <v>1.934432043637943</v>
       </c>
       <c r="X4" t="n">
-        <v>2.543521576247639</v>
+        <v>4.729626984114999</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.771138094513314</v>
+        <v>1.556474464165627</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.952687750538025</v>
+        <v>0.2593950170107768</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.264477433160581</v>
+        <v>-1.971876934860109</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.752703092507729</v>
+        <v>0.1461693785177243</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.522715090848716</v>
+        <v>-1.055702134688659</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1.692754492149465</v>
+        <v>-0.1480296425982884</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2.331596426279112</v>
+        <v>-1.518800253247302</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8675522199126746</v>
+        <v>2.065467272847206</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.351525849381212</v>
+        <v>2.829811622360391</v>
       </c>
     </row>
     <row r="5">
@@ -913,100 +913,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.256145253648693</v>
+        <v>1.054014126793125</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.079820814022568</v>
+        <v>-4.176002350314802</v>
       </c>
       <c r="D5" t="n">
-        <v>2.617061628593112</v>
+        <v>-0.3152210057531045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3832427902263906</v>
+        <v>-1.76516645909054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5080372514054167</v>
+        <v>2.776907464716837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1769702975120723</v>
+        <v>1.813289891291768</v>
       </c>
       <c r="H5" t="n">
-        <v>1.509494827916055</v>
+        <v>1.686271683536507</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.227131047051083</v>
+        <v>5.691554629827592</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.9352205071986952</v>
+        <v>2.764993432873786</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3119583285794751</v>
+        <v>1.446103591238178</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.478818192469235</v>
+        <v>-0.8847654983488369</v>
       </c>
       <c r="M5" t="n">
-        <v>3.577451895544924</v>
+        <v>-1.242920470830126</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.371027411498245</v>
+        <v>-0.1729241353899197</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9160016581503916</v>
+        <v>-2.040378387937058</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.881852461533362</v>
+        <v>-2.411429979542556</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7989062136403328</v>
+        <v>-0.7243053841450506</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.151542544908945</v>
+        <v>3.032852976730581</v>
       </c>
       <c r="S5" t="n">
-        <v>2.787775467053576</v>
+        <v>-2.735519811924478</v>
       </c>
       <c r="T5" t="n">
-        <v>2.276423797144768</v>
+        <v>-0.4881808198044468</v>
       </c>
       <c r="U5" t="n">
-        <v>2.170208159617267</v>
+        <v>1.4349118386713</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12677839625352</v>
+        <v>0.7957486916725555</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.6937242774361388</v>
+        <v>-0.2502168019427894</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2141864269563462</v>
+        <v>-0.2631677865152413</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.516657784618492</v>
+        <v>-0.8197019476148845</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.118973084819432</v>
+        <v>1.041341169440491</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.8571556177995403</v>
+        <v>0.4173226539427699</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.05274477960781822</v>
+        <v>1.422584073028575</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.537251588309424</v>
+        <v>0.4130836981988111</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.188101008555905</v>
+        <v>-1.521255270069099</v>
       </c>
       <c r="AE5" t="n">
-        <v>-4.043905165345629</v>
+        <v>0.3457255221393456</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.197020128708578</v>
+        <v>-1.678933000720396</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2919584596911416</v>
+        <v>-1.421985091106771</v>
       </c>
     </row>
     <row r="6">
@@ -1016,100 +1016,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.409630204608854</v>
+        <v>1.479848097604175</v>
       </c>
       <c r="C6" t="n">
-        <v>1.231843391206768</v>
+        <v>-1.666416849530935</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.339032077558318</v>
+        <v>-0.2999658515206435</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8298350286573204</v>
+        <v>-3.246024286153747</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6682274635496978</v>
+        <v>-1.381987072660186</v>
       </c>
       <c r="G6" t="n">
-        <v>5.313372725411976</v>
+        <v>-1.129857835224081</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.425725568561802</v>
+        <v>1.299998672544547</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.225331328067085</v>
+        <v>-2.15002143764814</v>
       </c>
       <c r="J6" t="n">
-        <v>5.031220064741069</v>
+        <v>1.461194135920578</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.377592279953959</v>
+        <v>0.5069412373208594</v>
       </c>
       <c r="L6" t="n">
-        <v>5.194821493825262</v>
+        <v>0.5389888613992404</v>
       </c>
       <c r="M6" t="n">
-        <v>1.319256263398453</v>
+        <v>4.953522645952361</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.07200885140768311</v>
+        <v>-7.369576357255889</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2790468723774105</v>
+        <v>1.203821647697773</v>
       </c>
       <c r="P6" t="n">
-        <v>2.97993973238346</v>
+        <v>-1.07274362976036</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.034239971215187</v>
+        <v>3.512659742349356</v>
       </c>
       <c r="R6" t="n">
-        <v>2.669293057653784</v>
+        <v>0.3285056461650234</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.775518838923097</v>
+        <v>0.1023243677021683</v>
       </c>
       <c r="T6" t="n">
-        <v>3.807078701708023</v>
+        <v>2.813526290430384</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.728342211705657</v>
+        <v>-1.919238885960919</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3165410652782139</v>
+        <v>-0.7000827736347857</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.558086253333444</v>
+        <v>3.342639041488223</v>
       </c>
       <c r="X6" t="n">
-        <v>-3.603662107932111</v>
+        <v>-5.19965468453953</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.912555778365198</v>
+        <v>0.4659197370813132</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.162192375750679</v>
+        <v>3.721288139949329</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6867896878596913</v>
+        <v>3.045887132229344</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.167379317097424</v>
+        <v>-0.3927123285254615</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.752055960491987</v>
+        <v>-6.29773432437279</v>
       </c>
       <c r="AD6" t="n">
-        <v>-2.212031993556995</v>
+        <v>0.6774042734569722</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.535941056448406</v>
+        <v>0.9474650961149044</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1955115732332572</v>
+        <v>-3.680914265997234</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.928823509115379</v>
+        <v>-3.533364099130679</v>
       </c>
     </row>
     <row r="7">
@@ -1119,100 +1119,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.829344971627713</v>
+        <v>-0.2927811166656792</v>
       </c>
       <c r="C7" t="n">
-        <v>2.209059659480834</v>
+        <v>0.5497437526503547</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.768848434717625</v>
+        <v>-3.894218922255722</v>
       </c>
       <c r="E7" t="n">
-        <v>1.077863618857822</v>
+        <v>2.028119876497494</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.029992998564754</v>
+        <v>1.03501243668811</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.025912756889704</v>
+        <v>-2.680085092853677</v>
       </c>
       <c r="H7" t="n">
-        <v>1.766675483050737</v>
+        <v>1.41376790820926</v>
       </c>
       <c r="I7" t="n">
-        <v>3.529386193664834</v>
+        <v>-1.185421613587446</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01166976955135487</v>
+        <v>-3.14545287415262</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7425732904691589</v>
+        <v>-4.114700031700037</v>
       </c>
       <c r="L7" t="n">
-        <v>1.209175676114747</v>
+        <v>-0.1423150585427058</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.716439319892933</v>
+        <v>1.558190421427347</v>
       </c>
       <c r="N7" t="n">
-        <v>-6.855830028582364</v>
+        <v>1.059076484939025</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.55316848756821</v>
+        <v>5.293171991924875</v>
       </c>
       <c r="P7" t="n">
-        <v>1.784103968582104</v>
+        <v>-1.526452247972754</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.168479524228293</v>
+        <v>2.762500905927899</v>
       </c>
       <c r="R7" t="n">
-        <v>1.408912812321032</v>
+        <v>-4.196151995699655</v>
       </c>
       <c r="S7" t="n">
-        <v>-1.357429364187448</v>
+        <v>-0.2901055336698231</v>
       </c>
       <c r="T7" t="n">
-        <v>0.367572167397135</v>
+        <v>0.6652462773899958</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.386134569405119</v>
+        <v>-4.436483946517175</v>
       </c>
       <c r="V7" t="n">
-        <v>-3.873127255689749</v>
+        <v>-3.964894240757797</v>
       </c>
       <c r="W7" t="n">
-        <v>-1.650117929929062</v>
+        <v>1.701585959209826</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.6175025284055378</v>
+        <v>-0.9950602740858544</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.9585453592128713</v>
+        <v>4.099930123439108</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8676678959009371</v>
+        <v>-1.656350803505338</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.6471049593858671</v>
+        <v>-0.3960505128857772</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.123877162623782</v>
+        <v>6.934809778636804</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.977903766927231</v>
+        <v>0.6660248563230005</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.618458871625184</v>
+        <v>3.285367528984995</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.186335119972534</v>
+        <v>0.009995675742464143</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.9821469652056597</v>
+        <v>2.485490589924939</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.846443906501194</v>
+        <v>-0.7734587623494038</v>
       </c>
     </row>
   </sheetData>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.38646859371986</v>
+        <v>-2.462398997961598</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.791358489369546</v>
+        <v>-3.488464256345847</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.667617285361571</v>
+        <v>-2.42938290810128</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.146529047454469</v>
+        <v>-1.71929793377942</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8844010400533022</v>
+        <v>-1.191625870339836</v>
       </c>
     </row>
     <row r="3">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.892174049513833</v>
+        <v>0.3280067131713799</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.112814818945695</v>
+        <v>2.139071525576705</v>
       </c>
       <c r="D3" t="n">
-        <v>3.287769807258609</v>
+        <v>-2.157629577046671</v>
       </c>
       <c r="E3" t="n">
-        <v>4.055073342023886</v>
+        <v>-2.658024737156631</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.824822279878167</v>
+        <v>-3.054836266441082</v>
       </c>
     </row>
     <row r="4">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.302256011448795</v>
+        <v>-2.125682930807986</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.337703906039276</v>
+        <v>-4.697222139956682</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5518775606842797</v>
+        <v>-1.354249441430005</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.27407358923133</v>
+        <v>2.655093701527443</v>
       </c>
       <c r="F4" t="n">
-        <v>2.499671271010779</v>
+        <v>2.066934362495168</v>
       </c>
     </row>
     <row r="5">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.864129797910108</v>
+        <v>-2.398360691759314</v>
       </c>
       <c r="C5" t="n">
-        <v>2.869830575626937</v>
+        <v>0.8844358436090025</v>
       </c>
       <c r="D5" t="n">
-        <v>1.610297278803899</v>
+        <v>0.7779987521514989</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.235321964559627</v>
+        <v>-2.646976981916203</v>
       </c>
       <c r="F5" t="n">
-        <v>1.484883372755987</v>
+        <v>0.5736827316262204</v>
       </c>
     </row>
     <row r="6">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.112441425045904</v>
+        <v>-2.318561196625529</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1074600643788377</v>
+        <v>-1.623904950437109</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.427980707535354</v>
+        <v>1.947127460862647</v>
       </c>
       <c r="E6" t="n">
-        <v>1.898589583390027</v>
+        <v>1.735374303300447</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.4497743351533</v>
+        <v>-2.527201346651511</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.172295906598398</v>
+        <v>-0.4008053954582966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.723584402892285</v>
+        <v>0.2927216038682592</v>
       </c>
       <c r="D7" t="n">
-        <v>2.743691301830094</v>
+        <v>-4.34240384428793</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.851362556854385</v>
+        <v>4.904867145358664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3500597627595673</v>
+        <v>-2.58168595771423</v>
       </c>
     </row>
     <row r="8">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4967733037518617</v>
+        <v>-1.68586284915786</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5545284809241041</v>
+        <v>0.59267795322908</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.69354780747003</v>
+        <v>-2.298879323303415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4236153776713336</v>
+        <v>-0.09384392332260266</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1134372919505503</v>
+        <v>2.812579711062135</v>
       </c>
     </row>
     <row r="9">
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.750528293952313</v>
+        <v>1.932219914140026</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.978869891812593</v>
+        <v>0.8710851521286231</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2267817638430912</v>
+        <v>-0.4242380334445626</v>
       </c>
       <c r="E9" t="n">
-        <v>1.14182022050821</v>
+        <v>-3.522053622353892</v>
       </c>
       <c r="F9" t="n">
-        <v>1.085434444198737</v>
+        <v>-2.453865711456488</v>
       </c>
     </row>
     <row r="10">
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.481641171369161</v>
+        <v>-1.139272185773503</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.508762819647694</v>
+        <v>4.03284328089098</v>
       </c>
       <c r="D10" t="n">
-        <v>2.064714410626391</v>
+        <v>0.9337248685678636</v>
       </c>
       <c r="E10" t="n">
-        <v>1.917170668986261</v>
+        <v>-2.838259404162116</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.847122841871053</v>
+        <v>-1.009591367023246</v>
       </c>
     </row>
     <row r="11">
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.771742436467039</v>
+        <v>-2.636761746676282</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.117022031402948</v>
+        <v>1.936383516111488</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.178481293435491</v>
+        <v>-3.037580658644137</v>
       </c>
       <c r="E11" t="n">
-        <v>1.781912435942773</v>
+        <v>-2.094348051345585</v>
       </c>
       <c r="F11" t="n">
-        <v>1.317673314803795</v>
+        <v>1.324682854536362</v>
       </c>
     </row>
     <row r="12">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5835583389640566</v>
+        <v>1.205016555640839</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.168753139644136</v>
+        <v>3.078859316994883</v>
       </c>
       <c r="D12" t="n">
-        <v>3.467972760396754</v>
+        <v>0.4209977693524858</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.203096886239445</v>
+        <v>1.691463439268152</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.027752838033136</v>
+        <v>-7.404369878126573</v>
       </c>
     </row>
     <row r="13">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.932316939964597</v>
+        <v>-1.854196403934459</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.121529977552159</v>
+        <v>-4.163591874289508</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.397730973201289</v>
+        <v>1.942280455673528</v>
       </c>
       <c r="E13" t="n">
-        <v>2.381294797778889</v>
+        <v>-2.110417886025374</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.831874164707916</v>
+        <v>0.8875529305170695</v>
       </c>
     </row>
     <row r="14">
@@ -1532,19 +1532,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.954550596968342</v>
+        <v>3.795042193158303</v>
       </c>
       <c r="C14" t="n">
-        <v>3.488089429138821</v>
+        <v>-3.659634204299477</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.776894013681523</v>
+        <v>-2.52363706214345</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.357213611064869</v>
+        <v>1.452295347097685</v>
       </c>
       <c r="F14" t="n">
-        <v>1.164484202367685</v>
+        <v>0.9981693911017037</v>
       </c>
     </row>
     <row r="15">
@@ -1554,19 +1554,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.049885790193744</v>
+        <v>0.2015690296319648</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9885928950842449</v>
+        <v>-0.5391235801678823</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.88667477202964</v>
+        <v>3.508909009739548</v>
       </c>
       <c r="E15" t="n">
-        <v>3.216767983497856</v>
+        <v>-3.642771372455474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.941080864977941</v>
+        <v>-2.3455009771891</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.88477526368316</v>
+        <v>2.072534046383207</v>
       </c>
       <c r="C16" t="n">
-        <v>1.030203581286241</v>
+        <v>-3.661154290609223</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.246884737022699</v>
+        <v>-1.671640405993517</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05800481548142958</v>
+        <v>2.067421095010526</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.471459756051287</v>
+        <v>-1.959487871400823</v>
       </c>
     </row>
     <row r="17">
@@ -1598,19 +1598,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.075974448634384</v>
+        <v>-1.821578100893375</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.912571173297169</v>
+        <v>-1.902990196368402</v>
       </c>
       <c r="D17" t="n">
-        <v>2.433814888474709</v>
+        <v>2.527753704503278</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.697224919175774</v>
+        <v>-2.295568841657525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8979177455909493</v>
+        <v>-0.8081791656436347</v>
       </c>
     </row>
     <row r="18">
@@ -1620,19 +1620,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.576150494506095</v>
+        <v>3.92543496851909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1551583996423994</v>
+        <v>-2.763414066741666</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4969868167907577</v>
+        <v>-0.9337839189650935</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.045600190765398</v>
+        <v>-4.085030444717717</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.929789887935148</v>
+        <v>-0.2559151124834025</v>
       </c>
     </row>
     <row r="19">
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.745497260594748</v>
+        <v>-3.614190966220896</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.890976577019629</v>
+        <v>2.487054749776537</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.516402205542397</v>
+        <v>-1.168762037009606</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6711890306210918</v>
+        <v>-3.08612730293504</v>
       </c>
       <c r="F19" t="n">
-        <v>1.054784804979178</v>
+        <v>1.244125750555839</v>
       </c>
     </row>
     <row r="20">
@@ -1664,19 +1664,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.060974065370633</v>
+        <v>-2.403529008490692</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09627421184105028</v>
+        <v>-3.034832904642827</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2220420829079674</v>
+        <v>-1.286128274249768</v>
       </c>
       <c r="E20" t="n">
-        <v>4.057854482298477</v>
+        <v>-1.362383505444492</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.642630953691884</v>
+        <v>-0.2350616478652167</v>
       </c>
     </row>
     <row r="21">
@@ -1686,19 +1686,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.530914479809163</v>
+        <v>1.154286665822475</v>
       </c>
       <c r="C21" t="n">
-        <v>4.702294551596149</v>
+        <v>0.1540432054073719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1002295434497279</v>
+        <v>-1.269704244871656</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.663786512585574</v>
+        <v>-4.419853144307992</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.027078921512732</v>
+        <v>-0.1345211687843077</v>
       </c>
     </row>
     <row r="22">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4.241335123482054</v>
+        <v>-3.551190484886968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2001772067206472</v>
+        <v>-0.02567880467711872</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4246859538647341</v>
+        <v>-3.41927472477296</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.003482864830905</v>
+        <v>2.859104998030148</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.256636232437218</v>
+        <v>-2.126993238343811</v>
       </c>
     </row>
     <row r="23">
@@ -1730,19 +1730,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.342575724284405</v>
+        <v>-1.013647944111946</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04565549752077363</v>
+        <v>0.7312663312797694</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.177084184355017</v>
+        <v>3.275832802839146</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8756778753809071</v>
+        <v>-2.903099843542873</v>
       </c>
       <c r="F23" t="n">
-        <v>2.765015043656144</v>
+        <v>-0.1317548162126477</v>
       </c>
     </row>
     <row r="24">
@@ -1752,19 +1752,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.432344633345799</v>
+        <v>1.95640892330868</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.106920900363749</v>
+        <v>-3.5463203349037</v>
       </c>
       <c r="D24" t="n">
-        <v>1.602632968855933</v>
+        <v>-1.877813735089984</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.9560518082078814</v>
+        <v>0.5891483056434952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06581010111230363</v>
+        <v>2.456111981202553</v>
       </c>
     </row>
     <row r="25">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.605289926127282</v>
+        <v>-1.610006439118657</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.476281260915495</v>
+        <v>-1.666192887046563</v>
       </c>
       <c r="D25" t="n">
-        <v>1.865446640948069</v>
+        <v>2.805411866581062</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.65710845115263</v>
+        <v>-3.244498157655021</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.013865744040856</v>
+        <v>2.181977523937316</v>
       </c>
     </row>
     <row r="26">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.552018917145459</v>
+        <v>1.230757300981479</v>
       </c>
       <c r="C26" t="n">
-        <v>4.619918714932255</v>
+        <v>-1.939687186620236</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4314682197296774</v>
+        <v>-1.493750968131456</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.577351351134477</v>
+        <v>-0.3915596282990615</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.736175083406447</v>
+        <v>-4.517623953582926</v>
       </c>
     </row>
     <row r="27">
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7022258854519372</v>
+        <v>0.5735335103243459</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.511605524550965</v>
+        <v>-0.6663508044950337</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.268324263854117</v>
+        <v>-2.632718754290656</v>
       </c>
       <c r="E27" t="n">
-        <v>2.180368029726178</v>
+        <v>-2.843963637569915</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.094686900050205</v>
+        <v>0.2535591929942574</v>
       </c>
     </row>
     <row r="28">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.927439329219311</v>
+        <v>-1.639571319783107</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.130735138795257</v>
+        <v>-0.4703543156267187</v>
       </c>
       <c r="D28" t="n">
-        <v>1.884176009934481</v>
+        <v>-2.080094529071672</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.068380681823331</v>
+        <v>0.2390824365500771</v>
       </c>
       <c r="F28" t="n">
-        <v>1.215300422169682</v>
+        <v>1.737682061453398</v>
       </c>
     </row>
     <row r="29">
@@ -1862,19 +1862,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.352162692030685</v>
+        <v>2.009261795451673</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.296993639716618</v>
+        <v>-0.9300988443516988</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.062529855062453</v>
+        <v>3.631258433531593</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7346841496210822</v>
+        <v>-3.676918051516626</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.916636701495082</v>
+        <v>-2.768203951309126</v>
       </c>
     </row>
     <row r="30">
@@ -1884,19 +1884,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.415107491492127</v>
+        <v>-2.113354359192197</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9057906162930931</v>
+        <v>0.8092364765236504</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.740510000826504</v>
+        <v>1.711474097632861</v>
       </c>
       <c r="E30" t="n">
-        <v>1.799970527936081</v>
+        <v>-3.556406789126342</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4789031286598593</v>
+        <v>-1.65719199467918</v>
       </c>
     </row>
     <row r="31">
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.872006913855009</v>
+        <v>1.448420248651571</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7488839179340568</v>
+        <v>-1.606035841610762</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.023574796084851</v>
+        <v>-0.2891854412273575</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.275090146754799</v>
+        <v>-2.073549808982028</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3577008029895071</v>
+        <v>-3.051327096892035</v>
       </c>
     </row>
     <row r="32">
@@ -1928,19 +1928,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.004593292634518768</v>
+        <v>-0.2597383335425595</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.064005470633405</v>
+        <v>1.230000200919151</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.002814750062353</v>
+        <v>-2.228971009596975</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6592952506893314</v>
+        <v>-1.225743709856091</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.278991468902597</v>
+        <v>-0.4466956569283837</v>
       </c>
     </row>
     <row r="33">
@@ -1950,19 +1950,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1468834066446588</v>
+        <v>-0.7881107475620561</v>
       </c>
       <c r="C33" t="n">
-        <v>2.241688037767582</v>
+        <v>-1.015575035791223</v>
       </c>
       <c r="D33" t="n">
-        <v>2.769097917735205</v>
+        <v>1.324562137248666</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.582045803319417</v>
+        <v>3.819426172895949</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4841644845797081</v>
+        <v>-3.2237671582017</v>
       </c>
     </row>
     <row r="34">
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005921635654685971</v>
+        <v>-1.967519828998436</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.06399179228384</v>
+        <v>-4.579597401338463</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.9139069931130842</v>
+        <v>-0.4884884266649572</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.337615509175275</v>
+        <v>3.957376549755957</v>
       </c>
       <c r="F34" t="n">
-        <v>2.287742901871229</v>
+        <v>2.251063442848666</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network32.xlsx
+++ b/Networks/Parte3/Excel/Network32.xlsx
@@ -604,100 +604,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.261795251125946</v>
+        <v>-2.128428482503754</v>
       </c>
       <c r="C2" t="n">
-        <v>3.469227499330986</v>
+        <v>-0.1565612078896373</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.970494595927072</v>
+        <v>1.703937038019497</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.98175471207303</v>
+        <v>-2.873509264956853</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.047409869265188</v>
+        <v>-1.524094286180117</v>
       </c>
       <c r="G2" t="n">
-        <v>1.134161045634381</v>
+        <v>1.970306646560408</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.9853181964774</v>
+        <v>-3.340214591414613</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.325672633928069</v>
+        <v>-8.205599030277664</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.346452750241886</v>
+        <v>0.465844604534416</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.399445279447475</v>
+        <v>-4.239639630248472</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.627442239487996</v>
+        <v>-5.886564982040229</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.595334352346349</v>
+        <v>-1.813935900263198</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.53831378304394</v>
+        <v>-1.67450967908083</v>
       </c>
       <c r="O2" t="n">
-        <v>2.37881762182763</v>
+        <v>-4.106492594029185</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.60274389496132</v>
+        <v>-5.661750180139022</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.081883823045482</v>
+        <v>-0.6001976588314563</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.846722940211394</v>
+        <v>-2.722156292049869</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01939347588856905</v>
+        <v>-1.159852088378163</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.8097859297809955</v>
+        <v>-1.543855968423892</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6612325492186464</v>
+        <v>-2.271293351430265</v>
       </c>
       <c r="V2" t="n">
-        <v>-4.696732106531176</v>
+        <v>1.535493445739997</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.194597206293158</v>
+        <v>-1.929634145784699</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.540216262711889</v>
+        <v>-4.53923783832259</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6710197120872</v>
+        <v>0.7235975354905119</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8441838179695597</v>
+        <v>2.117181924337765</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.361446942205484</v>
+        <v>-3.927231530914095</v>
       </c>
       <c r="AB2" t="n">
-        <v>-5.123128266223919</v>
+        <v>0.874679458332124</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.086238932508377</v>
+        <v>-2.077516368333661</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.201777898653041</v>
+        <v>-1.087864066605148</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.808823515873775</v>
+        <v>-1.791817380572224</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.714767648248415</v>
+        <v>-3.014361213062045</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.672563830264617</v>
+        <v>1.78341242706673</v>
       </c>
     </row>
     <row r="3">
@@ -707,100 +707,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9360113651385352</v>
+        <v>1.844895808812186</v>
       </c>
       <c r="C3" t="n">
-        <v>1.590583653815456</v>
+        <v>4.252280282214618</v>
       </c>
       <c r="D3" t="n">
-        <v>1.573289232364692</v>
+        <v>-0.5017005703436717</v>
       </c>
       <c r="E3" t="n">
-        <v>1.721314392337103</v>
+        <v>-1.434525301914755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6798620255590375</v>
+        <v>-0.1995100530985493</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.161082146772302</v>
+        <v>-0.1632450863648565</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2435648983919629</v>
+        <v>-1.052805033193142</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08434402696186957</v>
+        <v>-1.553771732988205</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.475519910295189</v>
+        <v>0.3499309191627751</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.669727218562321</v>
+        <v>-1.356771127817697</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2922753371186694</v>
+        <v>-1.519776569485451</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3004055742997055</v>
+        <v>-0.3450398326908682</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.696143938823603</v>
+        <v>-3.885391377805532</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04161147985694724</v>
+        <v>-0.5769852393554897</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.883713351877031</v>
+        <v>4.060288328591816</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.6577899883502684</v>
+        <v>-0.02147395306935002</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.732865897867941</v>
+        <v>0.07445021496664768</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1633758124921997</v>
+        <v>0.07378288179312226</v>
       </c>
       <c r="T3" t="n">
-        <v>-3.651621280947812</v>
+        <v>-2.201447285674901</v>
       </c>
       <c r="U3" t="n">
-        <v>4.550527104207581</v>
+        <v>2.566517828551446</v>
       </c>
       <c r="V3" t="n">
-        <v>3.833862377898478</v>
+        <v>1.236782969795144</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.5553306007487665</v>
+        <v>0.7177633261209946</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.857694880962946</v>
+        <v>-1.41619999282517</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.231090743880248</v>
+        <v>-1.568069907821866</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.9157077595426705</v>
+        <v>1.454454700612849</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8940297171808818</v>
+        <v>-0.4031445365901816</v>
       </c>
       <c r="AB3" t="n">
-        <v>-2.896445720393635</v>
+        <v>1.033164535312205</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.7412618547043901</v>
+        <v>-0.4400517547382048</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6821513750389773</v>
+        <v>0.1840985190085195</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1332836543417268</v>
+        <v>-1.207209379793082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.06678914906453</v>
+        <v>-0.6560228782471138</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.864163530953805</v>
+        <v>1.599716368030172</v>
       </c>
     </row>
     <row r="4">
@@ -810,100 +810,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.229590302016561</v>
+        <v>2.37560648764727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.806449310492301</v>
+        <v>0.8289223227187992</v>
       </c>
       <c r="D4" t="n">
-        <v>1.996986465159093</v>
+        <v>-2.435228284091838</v>
       </c>
       <c r="E4" t="n">
-        <v>1.072199996556058</v>
+        <v>0.7819864852611609</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.44208353146236</v>
+        <v>-2.607245133025257</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.479307022656409</v>
+        <v>-2.769422018205597</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.211261994781599</v>
+        <v>0.6610490074022215</v>
       </c>
       <c r="I4" t="n">
-        <v>2.624096971340521</v>
+        <v>1.986547746833341</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4718813522139925</v>
+        <v>4.779746705503449</v>
       </c>
       <c r="K4" t="n">
-        <v>-6.848916548705906</v>
+        <v>6.194266035932527</v>
       </c>
       <c r="L4" t="n">
-        <v>7.072620020738106</v>
+        <v>-0.4928855769962741</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77032562860379</v>
+        <v>-0.4292278064218726</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9327441156591061</v>
+        <v>-2.192095160465272</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.303079932463307</v>
+        <v>-1.806764214727553</v>
       </c>
       <c r="P4" t="n">
-        <v>6.672679825081913</v>
+        <v>2.64500751809654</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.441007514868104</v>
+        <v>-2.832026900382868</v>
       </c>
       <c r="R4" t="n">
-        <v>1.341979504531376</v>
+        <v>-0.4653668693483887</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2571736316250528</v>
+        <v>-2.612148476280732</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3678035760245541</v>
+        <v>-2.914418085306809</v>
       </c>
       <c r="U4" t="n">
-        <v>2.258050411230768</v>
+        <v>1.401687815430056</v>
       </c>
       <c r="V4" t="n">
-        <v>1.929699418405</v>
+        <v>0.5551054793762339</v>
       </c>
       <c r="W4" t="n">
-        <v>1.934432043637943</v>
+        <v>1.099908825977145</v>
       </c>
       <c r="X4" t="n">
-        <v>4.729626984114999</v>
+        <v>2.333783010877101</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.556474464165627</v>
+        <v>-3.120623478684872</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2593950170107768</v>
+        <v>2.076302130822919</v>
       </c>
       <c r="AA4" t="n">
-        <v>-1.971876934860109</v>
+        <v>1.022338569009042</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1461693785177243</v>
+        <v>6.039731794501347</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.055702134688659</v>
+        <v>6.32228600584707</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1480296425982884</v>
+        <v>1.800412876843801</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.518800253247302</v>
+        <v>0.5218044589446642</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.065467272847206</v>
+        <v>-3.408822481554678</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.829811622360391</v>
+        <v>-4.528655813669078</v>
       </c>
     </row>
     <row r="5">
@@ -913,100 +913,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.054014126793125</v>
+        <v>-1.617737090360182</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.176002350314802</v>
+        <v>-0.9243780442781128</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3152210057531045</v>
+        <v>1.71114175479891</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.76516645909054</v>
+        <v>2.605081607939857</v>
       </c>
       <c r="F5" t="n">
-        <v>2.776907464716837</v>
+        <v>2.168066754379322</v>
       </c>
       <c r="G5" t="n">
-        <v>1.813289891291768</v>
+        <v>-5.192365577527709</v>
       </c>
       <c r="H5" t="n">
-        <v>1.686271683536507</v>
+        <v>-0.456350594007096</v>
       </c>
       <c r="I5" t="n">
-        <v>5.691554629827592</v>
+        <v>-0.5652753003860799</v>
       </c>
       <c r="J5" t="n">
-        <v>2.764993432873786</v>
+        <v>-1.485016505464926</v>
       </c>
       <c r="K5" t="n">
-        <v>1.446103591238178</v>
+        <v>-1.763098328726194</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.8847654983488369</v>
+        <v>5.516865368354648</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.242920470830126</v>
+        <v>-0.7641383213227747</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1729241353899197</v>
+        <v>-1.279212432550797</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.040378387937058</v>
+        <v>-0.1627034013959398</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.411429979542556</v>
+        <v>0.7679205984149216</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.7243053841450506</v>
+        <v>1.040654822058346</v>
       </c>
       <c r="R5" t="n">
-        <v>3.032852976730581</v>
+        <v>0.4075214835462248</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.735519811924478</v>
+        <v>2.436394483029549</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.4881808198044468</v>
+        <v>0.6051273804667976</v>
       </c>
       <c r="U5" t="n">
-        <v>1.4349118386713</v>
+        <v>-2.038710128426377</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7957486916725555</v>
+        <v>-1.901260193458119</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2502168019427894</v>
+        <v>0.5131830868640332</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2631677865152413</v>
+        <v>-0.1366478162434982</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.8197019476148845</v>
+        <v>1.454801684384687</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.041341169440491</v>
+        <v>-0.3467381676037852</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4173226539427699</v>
+        <v>1.338374029984217</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.422584073028575</v>
+        <v>-1.299157067986002</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4130836981988111</v>
+        <v>-0.780234126622631</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.521255270069099</v>
+        <v>-0.3181541346014714</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3457255221393456</v>
+        <v>3.063103572834319</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.678933000720396</v>
+        <v>0.9473367858052857</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.421985091106771</v>
+        <v>0.3500998939482111</v>
       </c>
     </row>
     <row r="6">
@@ -1016,100 +1016,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.479848097604175</v>
+        <v>-1.778170769316802</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.666416849530935</v>
+        <v>-1.141706008650256</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2999658515206435</v>
+        <v>-0.04487832812101614</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.246024286153747</v>
+        <v>1.551780455739659</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.381987072660186</v>
+        <v>-2.844441906126193</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.129857835224081</v>
+        <v>2.294777360678806</v>
       </c>
       <c r="H6" t="n">
-        <v>1.299998672544547</v>
+        <v>-1.555363881991444</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.15002143764814</v>
+        <v>-6.95719301500553</v>
       </c>
       <c r="J6" t="n">
-        <v>1.461194135920578</v>
+        <v>0.5678838467462939</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5069412373208594</v>
+        <v>-0.642104036347858</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5389888613992404</v>
+        <v>0.9171427614307592</v>
       </c>
       <c r="M6" t="n">
-        <v>4.953522645952361</v>
+        <v>2.274333710279656</v>
       </c>
       <c r="N6" t="n">
-        <v>-7.369576357255889</v>
+        <v>0.8639895422009465</v>
       </c>
       <c r="O6" t="n">
-        <v>1.203821647697773</v>
+        <v>2.698777673194138</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.07274362976036</v>
+        <v>-1.17742410485567</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.512659742349356</v>
+        <v>-0.3029317947225235</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3285056461650234</v>
+        <v>1.13013853598485</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1023243677021683</v>
+        <v>-3.927410906659268</v>
       </c>
       <c r="T6" t="n">
-        <v>2.813526290430384</v>
+        <v>2.488542158212374</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.919238885960919</v>
+        <v>-4.255347853641029</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.7000827736347857</v>
+        <v>-4.282717296905814</v>
       </c>
       <c r="W6" t="n">
-        <v>3.342639041488223</v>
+        <v>-0.3808888784870539</v>
       </c>
       <c r="X6" t="n">
-        <v>-5.19965468453953</v>
+        <v>-5.292277065421642</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4659197370813132</v>
+        <v>0.5366455687896945</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.721288139949329</v>
+        <v>7.653014498988068</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.045887132229344</v>
+        <v>0.5668169588164738</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.3927123285254615</v>
+        <v>-0.35039722902503</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.29773432437279</v>
+        <v>-0.1799189170599806</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6774042734569722</v>
+        <v>3.21481388344709</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9474650961149044</v>
+        <v>0.6472065779048731</v>
       </c>
       <c r="AF6" t="n">
-        <v>-3.680914265997234</v>
+        <v>0.9362756546348306</v>
       </c>
       <c r="AG6" t="n">
-        <v>-3.533364099130679</v>
+        <v>3.15910471390695</v>
       </c>
     </row>
     <row r="7">
@@ -1119,100 +1119,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2927811166656792</v>
+        <v>2.502800947745842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5497437526503547</v>
+        <v>-4.364673608993913</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.894218922255722</v>
+        <v>-2.412715377915427</v>
       </c>
       <c r="E7" t="n">
-        <v>2.028119876497494</v>
+        <v>-4.203077780566113</v>
       </c>
       <c r="F7" t="n">
-        <v>1.03501243668811</v>
+        <v>-1.033305118685974</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.680085092853677</v>
+        <v>1.777335787990174</v>
       </c>
       <c r="H7" t="n">
-        <v>1.41376790820926</v>
+        <v>-0.4785795558913279</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.185421613587446</v>
+        <v>0.5439791081012473</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.14545287415262</v>
+        <v>1.491326762378588</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.114700031700037</v>
+        <v>-1.933670284479058</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1423150585427058</v>
+        <v>-2.088620209234382</v>
       </c>
       <c r="M7" t="n">
-        <v>1.558190421427347</v>
+        <v>1.849174204769582</v>
       </c>
       <c r="N7" t="n">
-        <v>1.059076484939025</v>
+        <v>3.601698955905497</v>
       </c>
       <c r="O7" t="n">
-        <v>5.293171991924875</v>
+        <v>3.350572411999306</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.526452247972754</v>
+        <v>-6.656372434973679</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.762500905927899</v>
+        <v>0.8127136980599502</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.196151995699655</v>
+        <v>3.357574519044844</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2901055336698231</v>
+        <v>-2.59966754908646</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6652462773899958</v>
+        <v>-0.2337028179634747</v>
       </c>
       <c r="U7" t="n">
-        <v>-4.436483946517175</v>
+        <v>1.991721466782111</v>
       </c>
       <c r="V7" t="n">
-        <v>-3.964894240757797</v>
+        <v>0.1672795011293192</v>
       </c>
       <c r="W7" t="n">
-        <v>1.701585959209826</v>
+        <v>-0.8770489260582122</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.9950602740858544</v>
+        <v>-0.4567794108217609</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.099930123439108</v>
+        <v>-5.086585817199603</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.656350803505338</v>
+        <v>-1.094394234177192</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.3960505128857772</v>
+        <v>4.17307122419172</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.934809778636804</v>
+        <v>1.804167303027666</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6660248563230005</v>
+        <v>-0.8191483034777675</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.285367528984995</v>
+        <v>-0.3135937548300415</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.009995675742464143</v>
+        <v>-1.614552294492486</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.485490589924939</v>
+        <v>-0.4854880814924871</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.7734587623494038</v>
+        <v>0.7340870705949202</v>
       </c>
     </row>
   </sheetData>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.462398997961598</v>
+        <v>-2.486066392882595</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.488464256345847</v>
+        <v>-3.324939805969533</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.42938290810128</v>
+        <v>-3.606689779788835</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.71929793377942</v>
+        <v>-0.3094377388304692</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.191625870339836</v>
+        <v>-1.833313494218738</v>
       </c>
     </row>
     <row r="3">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3280067131713799</v>
+        <v>-1.87501129802091</v>
       </c>
       <c r="C3" t="n">
-        <v>2.139071525576705</v>
+        <v>-1.828897873985759</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.157629577046671</v>
+        <v>0.6804833274312493</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.658024737156631</v>
+        <v>2.676543477842654</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.054836266441082</v>
+        <v>-3.350960424117218</v>
       </c>
     </row>
     <row r="4">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.125682930807986</v>
+        <v>-3.356461477080672</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.697222139956682</v>
+        <v>-1.433351835597343</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.354249441430005</v>
+        <v>-2.986619660594075</v>
       </c>
       <c r="E4" t="n">
-        <v>2.655093701527443</v>
+        <v>2.556188398240755</v>
       </c>
       <c r="F4" t="n">
-        <v>2.066934362495168</v>
+        <v>-3.033301601665173</v>
       </c>
     </row>
     <row r="5">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.398360691759314</v>
+        <v>-2.015287244950819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8844358436090025</v>
+        <v>0.3555168706664931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7779987521514989</v>
+        <v>-0.6882069178102532</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.646976981916203</v>
+        <v>0.1015615191661691</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5736827316262204</v>
+        <v>2.955000627221318</v>
       </c>
     </row>
     <row r="6">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.318561196625529</v>
+        <v>-2.759277279552559</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.623904950437109</v>
+        <v>2.292799221612364</v>
       </c>
       <c r="D6" t="n">
-        <v>1.947127460862647</v>
+        <v>-3.160653396136624</v>
       </c>
       <c r="E6" t="n">
-        <v>1.735374303300447</v>
+        <v>-2.944470012147193</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.527201346651511</v>
+        <v>2.020416136519361</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4008053954582966</v>
+        <v>-2.82761560326394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2927216038682592</v>
+        <v>-0.4742493328985171</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.34240384428793</v>
+        <v>-0.2298400035213816</v>
       </c>
       <c r="E7" t="n">
-        <v>4.904867145358664</v>
+        <v>2.118407063993445</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.58168595771423</v>
+        <v>-1.873970521608273</v>
       </c>
     </row>
     <row r="8">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.68586284915786</v>
+        <v>0.07882970995555935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.59267795322908</v>
+        <v>-4.675891675298327</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.298879323303415</v>
+        <v>-1.939840459694736</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09384392332260266</v>
+        <v>2.399496000064224</v>
       </c>
       <c r="F8" t="n">
-        <v>2.812579711062135</v>
+        <v>-1.142405126570442</v>
       </c>
     </row>
     <row r="9">
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.932219914140026</v>
+        <v>-1.935182526084331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8710851521286231</v>
+        <v>-0.7864884255927609</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4242380334445626</v>
+        <v>0.5687588209253729</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.522053622353892</v>
+        <v>-0.6730162818225175</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.453865711456488</v>
+        <v>-2.908087861949421</v>
       </c>
     </row>
     <row r="10">
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.139272185773503</v>
+        <v>-1.179214047906742</v>
       </c>
       <c r="C10" t="n">
-        <v>4.03284328089098</v>
+        <v>-0.7906387424436115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9337248685678636</v>
+        <v>2.131597369131819</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.838259404162116</v>
+        <v>-3.972182749139452</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.009591367023246</v>
+        <v>-3.820386601622209</v>
       </c>
     </row>
     <row r="11">
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.636761746676282</v>
+        <v>-0.5401056192068878</v>
       </c>
       <c r="C11" t="n">
-        <v>1.936383516111488</v>
+        <v>-3.203807396592147</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.037580658644137</v>
+        <v>-0.2597886828431931</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.094348051345585</v>
+        <v>-3.712051022815822</v>
       </c>
       <c r="F11" t="n">
-        <v>1.324682854536362</v>
+        <v>1.833088865435254</v>
       </c>
     </row>
     <row r="12">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.205016555640839</v>
+        <v>-2.119776693969391</v>
       </c>
       <c r="C12" t="n">
-        <v>3.078859316994883</v>
+        <v>-2.321374531158921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4209977693524858</v>
+        <v>2.68754656968381</v>
       </c>
       <c r="E12" t="n">
-        <v>1.691463439268152</v>
+        <v>-1.57061039747969</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.404369878126573</v>
+        <v>0.1802428312959177</v>
       </c>
     </row>
     <row r="13">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.854196403934459</v>
+        <v>-1.506246129516337</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.163591874289508</v>
+        <v>4.125778881506148</v>
       </c>
       <c r="D13" t="n">
-        <v>1.942280455673528</v>
+        <v>-0.7194609528726192</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.110417886025374</v>
+        <v>-4.069426632977398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8875529305170695</v>
+        <v>-3.395533921611251</v>
       </c>
     </row>
     <row r="14">
@@ -1532,19 +1532,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.795042193158303</v>
+        <v>2.600798061702643</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.659634204299477</v>
+        <v>-3.570976325938036</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.52363706214345</v>
+        <v>-0.697299778919409</v>
       </c>
       <c r="E14" t="n">
-        <v>1.452295347097685</v>
+        <v>-0.5573124160420631</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981693911017037</v>
+        <v>-0.7613148322100981</v>
       </c>
     </row>
     <row r="15">
@@ -1554,19 +1554,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2015690296319648</v>
+        <v>1.803483960458058</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5391235801678823</v>
+        <v>-1.274595445496322</v>
       </c>
       <c r="D15" t="n">
-        <v>3.508909009739548</v>
+        <v>2.033882727607571</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.642771372455474</v>
+        <v>-3.463977929083284</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.3455009771891</v>
+        <v>-0.3028325404876952</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.072534046383207</v>
+        <v>3.463352382020911</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.661154290609223</v>
+        <v>-2.001681589294106</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.671640405993517</v>
+        <v>0.1619234330734068</v>
       </c>
       <c r="E16" t="n">
-        <v>2.067421095010526</v>
+        <v>-5.153409431220119</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.959487871400823</v>
+        <v>-1.196818849171592</v>
       </c>
     </row>
     <row r="17">
@@ -1598,19 +1598,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.821578100893375</v>
+        <v>-1.526680343398233</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.902990196368402</v>
+        <v>2.452336170859176</v>
       </c>
       <c r="D17" t="n">
-        <v>2.527753704503278</v>
+        <v>4.251922922481926</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.295568841657525</v>
+        <v>-5.047258425150605</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8081791656436347</v>
+        <v>1.001619772956437</v>
       </c>
     </row>
     <row r="18">
@@ -1620,19 +1620,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.92543496851909</v>
+        <v>1.258755408323416</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.763414066741666</v>
+        <v>0.05056675220891471</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9337839189650935</v>
+        <v>-1.897281974661202</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.085030444717717</v>
+        <v>0.1490211972413862</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2559151124834025</v>
+        <v>-1.352141735833082</v>
       </c>
     </row>
     <row r="19">
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.614190966220896</v>
+        <v>2.56151103212534</v>
       </c>
       <c r="C19" t="n">
-        <v>2.487054749776537</v>
+        <v>-1.503069067622216</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.168762037009606</v>
+        <v>0.7314438087035104</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.08612730293504</v>
+        <v>-1.176102438756355</v>
       </c>
       <c r="F19" t="n">
-        <v>1.244125750555839</v>
+        <v>-2.167527581046609</v>
       </c>
     </row>
     <row r="20">
@@ -1664,19 +1664,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.403529008490692</v>
+        <v>-3.308207735570714</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.034832904642827</v>
+        <v>2.012788644371767</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.286128274249768</v>
+        <v>-1.607666159183875</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.362383505444492</v>
+        <v>1.292701668220042</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2350616478652167</v>
+        <v>-1.612482358034928</v>
       </c>
     </row>
     <row r="21">
@@ -1686,19 +1686,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.154286665822475</v>
+        <v>1.267460082797369</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1540432054073719</v>
+        <v>2.252750985316516</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.269704244871656</v>
+        <v>-1.815938196582891</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.419853144307992</v>
+        <v>-2.934452864763278</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1345211687843077</v>
+        <v>-3.396122726919236</v>
       </c>
     </row>
     <row r="22">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.551190484886968</v>
+        <v>-1.072730189991304</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02567880467711872</v>
+        <v>-2.274790929638519</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.41927472477296</v>
+        <v>2.667695928505389</v>
       </c>
       <c r="E22" t="n">
-        <v>2.859104998030148</v>
+        <v>3.866411193332751</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.126993238343811</v>
+        <v>-2.630663514596713</v>
       </c>
     </row>
     <row r="23">
@@ -1730,19 +1730,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.013647944111946</v>
+        <v>-2.236462535248491</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7312663312797694</v>
+        <v>-4.325623598640924</v>
       </c>
       <c r="D23" t="n">
-        <v>3.275832802839146</v>
+        <v>-0.9568743549092652</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.903099843542873</v>
+        <v>2.935775182296617</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1317548162126477</v>
+        <v>-0.6790343537402964</v>
       </c>
     </row>
     <row r="24">
@@ -1752,19 +1752,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.95640892330868</v>
+        <v>-1.748519170441513</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.5463203349037</v>
+        <v>-1.371999184497537</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.877813735089984</v>
+        <v>-0.0309646827412605</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5891483056434952</v>
+        <v>-1.103159130794942</v>
       </c>
       <c r="F24" t="n">
-        <v>2.456111981202553</v>
+        <v>-0.5310554280798148</v>
       </c>
     </row>
     <row r="25">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.610006439118657</v>
+        <v>-1.280077972993678</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.666192887046563</v>
+        <v>-0.9252259725669495</v>
       </c>
       <c r="D25" t="n">
-        <v>2.805411866581062</v>
+        <v>2.357171044692213</v>
       </c>
       <c r="E25" t="n">
-        <v>-3.244498157655021</v>
+        <v>-2.640485093282372</v>
       </c>
       <c r="F25" t="n">
-        <v>2.181977523937316</v>
+        <v>0.811785296246858</v>
       </c>
     </row>
     <row r="26">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.230757300981479</v>
+        <v>-1.160916605230524</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.939687186620236</v>
+        <v>0.1821738580479545</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.493750968131456</v>
+        <v>-1.202458406402586</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3915596282990615</v>
+        <v>-1.945542060158368</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.517623953582926</v>
+        <v>4.666465812681194</v>
       </c>
     </row>
     <row r="27">
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5735335103243459</v>
+        <v>1.062704815728099</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6663508044950337</v>
+        <v>-1.750931148137865</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.632718754290656</v>
+        <v>-5.022337380979296</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.843963637569915</v>
+        <v>3.002609954273342</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2535591929942574</v>
+        <v>-0.1581114576680663</v>
       </c>
     </row>
     <row r="28">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.639571319783107</v>
+        <v>1.957804461930718</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4703543156267187</v>
+        <v>-2.055816826406201</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.080094529071672</v>
+        <v>2.355464498779066</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2390824365500771</v>
+        <v>-1.300981131515607</v>
       </c>
       <c r="F28" t="n">
-        <v>1.737682061453398</v>
+        <v>-2.012568753876822</v>
       </c>
     </row>
     <row r="29">
@@ -1862,19 +1862,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.009261795451673</v>
+        <v>-1.928148798027169</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9300988443516988</v>
+        <v>-3.106902402767832</v>
       </c>
       <c r="D29" t="n">
-        <v>3.631258433531593</v>
+        <v>0.7623072558103534</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.676918051516626</v>
+        <v>-3.210886650598482</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.768203951309126</v>
+        <v>3.602303252315156</v>
       </c>
     </row>
     <row r="30">
@@ -1884,19 +1884,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.113354359192197</v>
+        <v>-0.7928688718153252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8092364765236504</v>
+        <v>-2.626088043292353</v>
       </c>
       <c r="D30" t="n">
-        <v>1.711474097632861</v>
+        <v>2.195600025960073</v>
       </c>
       <c r="E30" t="n">
-        <v>-3.556406789126342</v>
+        <v>-2.404138497101357</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.65719199467918</v>
+        <v>1.128582073230653</v>
       </c>
     </row>
     <row r="31">
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.448420248651571</v>
+        <v>0.9773252621740174</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.606035841610762</v>
+        <v>-2.421392139328514</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2891854412273575</v>
+        <v>-3.172872585869463</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.073549808982028</v>
+        <v>0.3500862578108033</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.051327096892035</v>
+        <v>0.9098062392594075</v>
       </c>
     </row>
     <row r="32">
@@ -1928,19 +1928,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.2597383335425595</v>
+        <v>0.3110772458684598</v>
       </c>
       <c r="C32" t="n">
-        <v>1.230000200919151</v>
+        <v>2.344664028013054</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.228971009596975</v>
+        <v>-1.001003355581623</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.225743709856091</v>
+        <v>-2.025282880700396</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4466956569283837</v>
+        <v>-0.1335915551816653</v>
       </c>
     </row>
     <row r="33">
@@ -1950,19 +1950,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.7881107475620561</v>
+        <v>1.923007146099186</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.015575035791223</v>
+        <v>1.5709697258605</v>
       </c>
       <c r="D33" t="n">
-        <v>1.324562137248666</v>
+        <v>-1.414079232122752</v>
       </c>
       <c r="E33" t="n">
-        <v>3.819426172895949</v>
+        <v>-3.347370323534402</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.2237671582017</v>
+        <v>-3.798003189134937</v>
       </c>
     </row>
     <row r="34">
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.967519828998436</v>
+        <v>0.2546814538240425</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.579597401338463</v>
+        <v>0.5351824676601419</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4884884266649572</v>
+        <v>-3.139160413890161</v>
       </c>
       <c r="E34" t="n">
-        <v>3.957376549755957</v>
+        <v>1.857405755615327</v>
       </c>
       <c r="F34" t="n">
-        <v>2.251063442848666</v>
+        <v>-2.24229807166722</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network32.xlsx
+++ b/Networks/Parte3/Excel/Network32.xlsx
@@ -604,100 +604,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.128428482503754</v>
+        <v>-4.586386445246991</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1565612078896373</v>
+        <v>-5.134958119710307</v>
       </c>
       <c r="D2" t="n">
-        <v>1.703937038019497</v>
+        <v>3.113844698928654</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.873509264956853</v>
+        <v>-0.1860425799439651</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.524094286180117</v>
+        <v>1.084837278859989</v>
       </c>
       <c r="G2" t="n">
-        <v>1.970306646560408</v>
+        <v>4.535298581985931</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.340214591414613</v>
+        <v>-1.567726670569366</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.205599030277664</v>
+        <v>-2.598146801575723</v>
       </c>
       <c r="J2" t="n">
-        <v>0.465844604534416</v>
+        <v>-1.324134289980209</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.239639630248472</v>
+        <v>-3.702625554649495</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.886564982040229</v>
+        <v>-0.2347712117776954</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.813935900263198</v>
+        <v>-3.168127442775946</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.67450967908083</v>
+        <v>-1.934336392239507</v>
       </c>
       <c r="O2" t="n">
-        <v>-4.106492594029185</v>
+        <v>-1.342659568555412</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.661750180139022</v>
+        <v>-3.266323638823662</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.6001976588314563</v>
+        <v>-1.4721674371406</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.722156292049869</v>
+        <v>-2.131043164247314</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.159852088378163</v>
+        <v>2.474813227888346</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.543855968423892</v>
+        <v>-2.427770943277697</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.271293351430265</v>
+        <v>1.995438915885011</v>
       </c>
       <c r="V2" t="n">
-        <v>1.535493445739997</v>
+        <v>-0.7328772448998838</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.929634145784699</v>
+        <v>-5.513923554242436</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.53923783832259</v>
+        <v>-1.377955774499941</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7235975354905119</v>
+        <v>-7.552414246653719</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.117181924337765</v>
+        <v>-3.361016191895097</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.927231530914095</v>
+        <v>0.3229697860088303</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.874679458332124</v>
+        <v>-2.942288630469876</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.077516368333661</v>
+        <v>-1.236369621341507</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.087864066605148</v>
+        <v>-0.3544504976384202</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.791817380572224</v>
+        <v>-5.796622709637974</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.014361213062045</v>
+        <v>-1.755737229849205</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.78341242706673</v>
+        <v>3.703338221831396</v>
       </c>
     </row>
     <row r="3">
@@ -707,100 +707,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.844895808812186</v>
+        <v>-1.047507814693982</v>
       </c>
       <c r="C3" t="n">
-        <v>4.252280282214618</v>
+        <v>-1.455865415484128</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5017005703436717</v>
+        <v>0.628233173541648</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.434525301914755</v>
+        <v>0.814122076621202</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1995100530985493</v>
+        <v>-0.7781762203490948</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1632450863648565</v>
+        <v>0.7204128653319761</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.052805033193142</v>
+        <v>-0.4210612514933174</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.553771732988205</v>
+        <v>-0.4526244695995839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3499309191627751</v>
+        <v>-0.3512905823862536</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.356771127817697</v>
+        <v>-1.044693081607733</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.519776569485451</v>
+        <v>0.129499188468279</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3450398326908682</v>
+        <v>0.6231238215917567</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.885391377805532</v>
+        <v>2.123875019462734</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5769852393554897</v>
+        <v>-5.149317322343017</v>
       </c>
       <c r="P3" t="n">
-        <v>4.060288328591816</v>
+        <v>-1.391750150593345</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.02147395306935002</v>
+        <v>-2.131412253683345</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07445021496664768</v>
+        <v>-0.1900116925997978</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07378288179312226</v>
+        <v>-2.483815563809725</v>
       </c>
       <c r="T3" t="n">
-        <v>-2.201447285674901</v>
+        <v>-1.696129722549741</v>
       </c>
       <c r="U3" t="n">
-        <v>2.566517828551446</v>
+        <v>0.05584956776035778</v>
       </c>
       <c r="V3" t="n">
-        <v>1.236782969795144</v>
+        <v>-0.4844005996233498</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7177633261209946</v>
+        <v>4.544465973998851</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.41619999282517</v>
+        <v>-1.14291800147477</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.568069907821866</v>
+        <v>-1.083615789375015</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.454454700612849</v>
+        <v>-1.471906529431032</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4031445365901816</v>
+        <v>0.9137286022916146</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.033164535312205</v>
+        <v>-1.769441008692461</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4400517547382048</v>
+        <v>0.9862154426667772</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1840985190085195</v>
+        <v>0.7327135396068</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.207209379793082</v>
+        <v>-2.464246134609994</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.6560228782471138</v>
+        <v>1.695984620663769</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.599716368030172</v>
+        <v>1.196930776441193</v>
       </c>
     </row>
     <row r="4">
@@ -810,100 +810,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.37560648764727</v>
+        <v>-0.5185826563082028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8289223227187992</v>
+        <v>2.07190155674293</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.435228284091838</v>
+        <v>-5.74667041209465</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7819864852611609</v>
+        <v>-3.778121816806203</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.607245133025257</v>
+        <v>3.32738945954617</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.769422018205597</v>
+        <v>-0.2597326410793376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6610490074022215</v>
+        <v>1.267101022794696</v>
       </c>
       <c r="I4" t="n">
-        <v>1.986547746833341</v>
+        <v>-2.972518789631938</v>
       </c>
       <c r="J4" t="n">
-        <v>4.779746705503449</v>
+        <v>-0.6315958988565116</v>
       </c>
       <c r="K4" t="n">
-        <v>6.194266035932527</v>
+        <v>-0.09093448415222748</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4928855769962741</v>
+        <v>1.895190449365909</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4292278064218726</v>
+        <v>2.942622572511792</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.192095160465272</v>
+        <v>1.542937956637446</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.806764214727553</v>
+        <v>-2.721970458545781</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64500751809654</v>
+        <v>-0.1833306996024554</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.832026900382868</v>
+        <v>1.878787822119942</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4653668693483887</v>
+        <v>2.72741417524779</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.612148476280732</v>
+        <v>-0.4262151811626779</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.914418085306809</v>
+        <v>-4.388961233541465</v>
       </c>
       <c r="U4" t="n">
-        <v>1.401687815430056</v>
+        <v>-3.82659068965677</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5551054793762339</v>
+        <v>-6.53069957992219</v>
       </c>
       <c r="W4" t="n">
-        <v>1.099908825977145</v>
+        <v>2.486508057112784</v>
       </c>
       <c r="X4" t="n">
-        <v>2.333783010877101</v>
+        <v>-0.3547553774881546</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.120623478684872</v>
+        <v>2.799959379421523</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.076302130822919</v>
+        <v>5.37628013670132</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.022338569009042</v>
+        <v>-5.539038877653249</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.039731794501347</v>
+        <v>-2.483259290420726</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.32228600584707</v>
+        <v>1.581948417099946</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.800412876843801</v>
+        <v>-3.938770502954189</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5218044589446642</v>
+        <v>0.6555164983035965</v>
       </c>
       <c r="AF4" t="n">
-        <v>-3.408822481554678</v>
+        <v>4.67463294469793</v>
       </c>
       <c r="AG4" t="n">
-        <v>-4.528655813669078</v>
+        <v>2.456104629607039</v>
       </c>
     </row>
     <row r="5">
@@ -913,100 +913,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.617737090360182</v>
+        <v>-0.08339743968096187</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9243780442781128</v>
+        <v>-0.1437598411365502</v>
       </c>
       <c r="D5" t="n">
-        <v>1.71114175479891</v>
+        <v>1.237233758789417</v>
       </c>
       <c r="E5" t="n">
-        <v>2.605081607939857</v>
+        <v>0.7297230073241445</v>
       </c>
       <c r="F5" t="n">
-        <v>2.168066754379322</v>
+        <v>-2.762438875616426</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.192365577527709</v>
+        <v>-5.586665305404594</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.456350594007096</v>
+        <v>0.5212340345666473</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5652753003860799</v>
+        <v>2.237301070935366</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.485016505464926</v>
+        <v>-0.1763024152029436</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.763098328726194</v>
+        <v>3.735740701096065</v>
       </c>
       <c r="L5" t="n">
-        <v>5.516865368354648</v>
+        <v>-0.199502910815815</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.7641383213227747</v>
+        <v>2.250385406860975</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.279212432550797</v>
+        <v>-1.703867385448291</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1627034013959398</v>
+        <v>-1.032441634640075</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7679205984149216</v>
+        <v>-0.751713086641949</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.040654822058346</v>
+        <v>3.526212201594578</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4075214835462248</v>
+        <v>0.2285629261762725</v>
       </c>
       <c r="S5" t="n">
-        <v>2.436394483029549</v>
+        <v>2.219590133702314</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6051273804667976</v>
+        <v>0.8164928636064931</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.038710128426377</v>
+        <v>-4.205197610762118</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.901260193458119</v>
+        <v>1.846619617418843</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5131830868640332</v>
+        <v>1.148567429918553</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1366478162434982</v>
+        <v>1.550584051926523</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.454801684384687</v>
+        <v>-0.6534204625543744</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.3467381676037852</v>
+        <v>-1.572636249097217</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.338374029984217</v>
+        <v>1.137454640137447</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.299157067986002</v>
+        <v>1.658374217718442</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.780234126622631</v>
+        <v>-0.728688935214148</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.3181541346014714</v>
+        <v>1.069931940387586</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.063103572834319</v>
+        <v>1.213157438388387</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9473367858052857</v>
+        <v>-1.301095695754164</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3500998939482111</v>
+        <v>-1.562001169930502</v>
       </c>
     </row>
     <row r="6">
@@ -1016,100 +1016,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.778170769316802</v>
+        <v>-6.954527464322089</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.141706008650256</v>
+        <v>-5.485883939418899</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04487832812101614</v>
+        <v>0.1478164750185453</v>
       </c>
       <c r="E6" t="n">
-        <v>1.551780455739659</v>
+        <v>0.5302453764015138</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.844441906126193</v>
+        <v>4.300363326166095</v>
       </c>
       <c r="G6" t="n">
-        <v>2.294777360678806</v>
+        <v>-0.5994067790728124</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.555363881991444</v>
+        <v>0.8020484139246284</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.95719301500553</v>
+        <v>-2.986470723504566</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5678838467462939</v>
+        <v>1.052756466801952</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.642104036347858</v>
+        <v>0.6457668581081797</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9171427614307592</v>
+        <v>3.605774945743977</v>
       </c>
       <c r="M6" t="n">
-        <v>2.274333710279656</v>
+        <v>0.08562665989572796</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8639895422009465</v>
+        <v>-1.922230987870792</v>
       </c>
       <c r="O6" t="n">
-        <v>2.698777673194138</v>
+        <v>0.967040123876319</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.17742410485567</v>
+        <v>3.560946168055195</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3029317947225235</v>
+        <v>-0.2646613754758391</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13013853598485</v>
+        <v>-0.1635558642503853</v>
       </c>
       <c r="S6" t="n">
-        <v>-3.927410906659268</v>
+        <v>5.109973046532335</v>
       </c>
       <c r="T6" t="n">
-        <v>2.488542158212374</v>
+        <v>2.409450062922744</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.255347853641029</v>
+        <v>1.943388787982783</v>
       </c>
       <c r="V6" t="n">
-        <v>-4.282717296905814</v>
+        <v>0.07103287268768864</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3808888784870539</v>
+        <v>-2.039022757223631</v>
       </c>
       <c r="X6" t="n">
-        <v>-5.292277065421642</v>
+        <v>1.1355207158978</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5366455687896945</v>
+        <v>-5.620015696919171</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.653014498988068</v>
+        <v>-0.8893050066026026</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5668169588164738</v>
+        <v>0.6816431404528969</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.35039722902503</v>
+        <v>2.830929894551975</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1799189170599806</v>
+        <v>5.24289230368613</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.21481388344709</v>
+        <v>0.1821332564144815</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6472065779048731</v>
+        <v>-0.220436322405093</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9362756546348306</v>
+        <v>-0.1568704015166564</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.15910471390695</v>
+        <v>-2.817824072087153</v>
       </c>
     </row>
     <row r="7">
@@ -1119,100 +1119,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.502800947745842</v>
+        <v>1.085173624481855</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.364673608993913</v>
+        <v>0.06751749660087734</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.412715377915427</v>
+        <v>1.369769342392973</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.203077780566113</v>
+        <v>0.09352295072186136</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.033305118685974</v>
+        <v>3.391462932610069</v>
       </c>
       <c r="G7" t="n">
-        <v>1.777335787990174</v>
+        <v>1.04257417418297</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4785795558913279</v>
+        <v>-0.1456402814388801</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5439791081012473</v>
+        <v>-1.901599891958851</v>
       </c>
       <c r="J7" t="n">
-        <v>1.491326762378588</v>
+        <v>0.8500181209143802</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.933670284479058</v>
+        <v>-1.518297686405649</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.088620209234382</v>
+        <v>-0.8006568763013381</v>
       </c>
       <c r="M7" t="n">
-        <v>1.849174204769582</v>
+        <v>1.122875571276787</v>
       </c>
       <c r="N7" t="n">
-        <v>3.601698955905497</v>
+        <v>0.9931974774878155</v>
       </c>
       <c r="O7" t="n">
-        <v>3.350572411999306</v>
+        <v>5.302520541590191</v>
       </c>
       <c r="P7" t="n">
-        <v>-6.656372434973679</v>
+        <v>2.392870812054817</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8127136980599502</v>
+        <v>-4.899449096746601</v>
       </c>
       <c r="R7" t="n">
-        <v>3.357574519044844</v>
+        <v>-4.547597420909287</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.59966754908646</v>
+        <v>-1.899663978739569</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.2337028179634747</v>
+        <v>-1.048871152905816</v>
       </c>
       <c r="U7" t="n">
-        <v>1.991721466782111</v>
+        <v>3.176698020255787</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1672795011293192</v>
+        <v>-1.198324701650654</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.8770489260582122</v>
+        <v>-4.94030782070215</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.4567794108217609</v>
+        <v>-3.077231921862321</v>
       </c>
       <c r="Y7" t="n">
-        <v>-5.086585817199603</v>
+        <v>-0.01927498867899027</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.094394234177192</v>
+        <v>-1.771492997042978</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.17307122419172</v>
+        <v>0.3947539104713027</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.804167303027666</v>
+        <v>0.07843424600944411</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.8191483034777675</v>
+        <v>1.190807754373738</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.3135937548300415</v>
+        <v>0.4593656980815417</v>
       </c>
       <c r="AE7" t="n">
-        <v>-1.614552294492486</v>
+        <v>6.758616726368472</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.4854880814924871</v>
+        <v>3.993198695613779</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7340870705949202</v>
+        <v>-2.74969626431078</v>
       </c>
     </row>
   </sheetData>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.486066392882595</v>
+        <v>-3.313556373630925</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.324939805969533</v>
+        <v>-2.048188877973237</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.606689779788835</v>
+        <v>-2.864696039721612</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3094377388304692</v>
+        <v>-1.422333623453403</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.833313494218738</v>
+        <v>-0.1873706809536477</v>
       </c>
     </row>
     <row r="3">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.87501129802091</v>
+        <v>-2.408741635683776</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.828897873985759</v>
+        <v>-0.2032046308106225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6804833274312493</v>
+        <v>3.141419418168084</v>
       </c>
       <c r="E3" t="n">
-        <v>2.676543477842654</v>
+        <v>-3.572815438191064</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.350960424117218</v>
+        <v>-0.5266956415582513</v>
       </c>
     </row>
     <row r="4">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.356461477080672</v>
+        <v>-1.389200731357266</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.433351835597343</v>
+        <v>-1.990461316269019</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.986619660594075</v>
+        <v>2.352990130841806</v>
       </c>
       <c r="E4" t="n">
-        <v>2.556188398240755</v>
+        <v>-2.543970803581511</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.033301601665173</v>
+        <v>-0.0007457469030383201</v>
       </c>
     </row>
     <row r="5">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.015287244950819</v>
+        <v>-1.121254262218829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3555168706664931</v>
+        <v>1.726894382011158</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6882069178102532</v>
+        <v>-2.368077606308155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1015615191661691</v>
+        <v>0.6554435562260083</v>
       </c>
       <c r="F5" t="n">
-        <v>2.955000627221318</v>
+        <v>0.4960117660346712</v>
       </c>
     </row>
     <row r="6">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.759277279552559</v>
+        <v>-0.5252279915724732</v>
       </c>
       <c r="C6" t="n">
-        <v>2.292799221612364</v>
+        <v>-0.741909210568626</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.160653396136624</v>
+        <v>-1.990064573250766</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.944470012147193</v>
+        <v>0.8634875878872367</v>
       </c>
       <c r="F6" t="n">
-        <v>2.020416136519361</v>
+        <v>-1.722681427806453</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.82761560326394</v>
+        <v>1.274832918677086</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4742493328985171</v>
+        <v>-3.479532167187137</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2298400035213816</v>
+        <v>1.165003285364794</v>
       </c>
       <c r="E7" t="n">
-        <v>2.118407063993445</v>
+        <v>-2.821204977232085</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.873970521608273</v>
+        <v>1.513612049904735</v>
       </c>
     </row>
     <row r="8">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07882970995555935</v>
+        <v>-1.71890949881259</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.675891675298327</v>
+        <v>-5.390663780719553</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.939840459694736</v>
+        <v>-2.199943938324142</v>
       </c>
       <c r="E8" t="n">
-        <v>2.399496000064224</v>
+        <v>2.873713916015141</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.142405126570442</v>
+        <v>0.6675179482363092</v>
       </c>
     </row>
     <row r="9">
@@ -1422,19 +1422,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.935182526084331</v>
+        <v>-1.311055807583891</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7864884255927609</v>
+        <v>-1.301392681550085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5687588209253729</v>
+        <v>-0.9317717589860753</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6730162818225175</v>
+        <v>0.1816819574827004</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.908087861949421</v>
+        <v>1.148992700244145</v>
       </c>
     </row>
     <row r="10">
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.179214047906742</v>
+        <v>-3.3992774151362</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7906387424436115</v>
+        <v>0.4772457032038153</v>
       </c>
       <c r="D10" t="n">
-        <v>2.131597369131819</v>
+        <v>-0.8309248740662677</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.972182749139452</v>
+        <v>2.560276922710142</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.820386601622209</v>
+        <v>-3.052081759908151</v>
       </c>
     </row>
     <row r="11">
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5401056192068878</v>
+        <v>0.3492931717939409</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.203807396592147</v>
+        <v>-1.730403435522874</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2597886828431931</v>
+        <v>-0.6863993178707357</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.712051022815822</v>
+        <v>-0.7103215223872114</v>
       </c>
       <c r="F11" t="n">
-        <v>1.833088865435254</v>
+        <v>-0.6555676965836552</v>
       </c>
     </row>
     <row r="12">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.119776693969391</v>
+        <v>-1.474294853433603</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.321374531158921</v>
+        <v>2.736246937516889</v>
       </c>
       <c r="D12" t="n">
-        <v>2.68754656968381</v>
+        <v>-0.619552824600247</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.57061039747969</v>
+        <v>-2.160985481117438</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1802428312959177</v>
+        <v>-1.491549430568295</v>
       </c>
     </row>
     <row r="13">
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.506246129516337</v>
+        <v>0.6855117527370576</v>
       </c>
       <c r="C13" t="n">
-        <v>4.125778881506148</v>
+        <v>-0.4200741696502535</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7194609528726192</v>
+        <v>-3.00809042293256</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.069426632977398</v>
+        <v>0.8315599182878303</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.395533921611251</v>
+        <v>-0.1196144741548208</v>
       </c>
     </row>
     <row r="14">
@@ -1532,19 +1532,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.600798061702643</v>
+        <v>0.5479250104197767</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.570976325938036</v>
+        <v>-4.407217679382965</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.697299778919409</v>
+        <v>1.531458978892033</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5573124160420631</v>
+        <v>0.5060915773955055</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7613148322100981</v>
+        <v>-0.09444274872190815</v>
       </c>
     </row>
     <row r="15">
@@ -1554,19 +1554,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.803483960458058</v>
+        <v>-3.130112475305281</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.274595445496322</v>
+        <v>-2.640729052469442</v>
       </c>
       <c r="D15" t="n">
-        <v>2.033882727607571</v>
+        <v>0.2369123502256457</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.463977929083284</v>
+        <v>1.794524137581818</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3028325404876952</v>
+        <v>-2.627080518848414</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.463352382020911</v>
+        <v>3.201733170753605</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.001681589294106</v>
+        <v>-1.028111441115585</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1619234330734068</v>
+        <v>3.658752905180009</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.153409431220119</v>
+        <v>-3.445379467040457</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.196818849171592</v>
+        <v>-0.05188695414690329</v>
       </c>
     </row>
     <row r="17">
@@ -1598,19 +1598,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.526680343398233</v>
+        <v>2.888144764957926</v>
       </c>
       <c r="C17" t="n">
-        <v>2.452336170859176</v>
+        <v>-2.438954035827867</v>
       </c>
       <c r="D17" t="n">
-        <v>4.251922922481926</v>
+        <v>-1.401887541337584</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.047258425150605</v>
+        <v>-4.524424233827236</v>
       </c>
       <c r="F17" t="n">
-        <v>1.001619772956437</v>
+        <v>2.285325030609944</v>
       </c>
     </row>
     <row r="18">
@@ -1620,19 +1620,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.258755408323416</v>
+        <v>-3.364570633737178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05056675220891471</v>
+        <v>2.863322723260049</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.897281974661202</v>
+        <v>-1.050144621150689</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1490211972413862</v>
+        <v>-3.672470103944627</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.352141735833082</v>
+        <v>3.522972768680603</v>
       </c>
     </row>
     <row r="19">
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.56151103212534</v>
+        <v>-4.328806756180815</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.503069067622216</v>
+        <v>1.249078486444002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7314438087035104</v>
+        <v>2.255984296485344</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.176102438756355</v>
+        <v>-1.908955423102889</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.167527581046609</v>
+        <v>1.203155811098632</v>
       </c>
     </row>
     <row r="20">
@@ -1664,19 +1664,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.308207735570714</v>
+        <v>0.5753332777140124</v>
       </c>
       <c r="C20" t="n">
-        <v>2.012788644371767</v>
+        <v>-1.091964555672787</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.607666159183875</v>
+        <v>-3.883617661319764</v>
       </c>
       <c r="E20" t="n">
-        <v>1.292701668220042</v>
+        <v>-4.249348358177793</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.612482358034928</v>
+        <v>2.49473145959801</v>
       </c>
     </row>
     <row r="21">
@@ -1686,19 +1686,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.267460082797369</v>
+        <v>0.6821272838195692</v>
       </c>
       <c r="C21" t="n">
-        <v>2.252750985316516</v>
+        <v>4.012145712442295</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.815938196582891</v>
+        <v>-0.8999805622734691</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.934452864763278</v>
+        <v>-4.810855001297939</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.396122726919236</v>
+        <v>-3.911403592462098</v>
       </c>
     </row>
     <row r="22">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.072730189991304</v>
+        <v>0.9209515711359229</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.274790929638519</v>
+        <v>-4.552954057143335</v>
       </c>
       <c r="D22" t="n">
-        <v>2.667695928505389</v>
+        <v>-1.326323163976953</v>
       </c>
       <c r="E22" t="n">
-        <v>3.866411193332751</v>
+        <v>2.061044308721051</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.630663514596713</v>
+        <v>-1.12053819393152</v>
       </c>
     </row>
     <row r="23">
@@ -1730,19 +1730,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.236462535248491</v>
+        <v>1.267149640042971</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.325623598640924</v>
+        <v>1.503422174980714</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9568743549092652</v>
+        <v>-2.762216516225866</v>
       </c>
       <c r="E23" t="n">
-        <v>2.935775182296617</v>
+        <v>3.228187679237401</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6790343537402964</v>
+        <v>-3.558078951330176</v>
       </c>
     </row>
     <row r="24">
@@ -1752,19 +1752,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.748519170441513</v>
+        <v>-1.757339189619821</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.371999184497537</v>
+        <v>-0.1635796778655205</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0309646827412605</v>
+        <v>2.852975277795603</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.103159130794942</v>
+        <v>-4.473676034172033</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5310554280798148</v>
+        <v>1.338965527163085</v>
       </c>
     </row>
     <row r="25">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.280077972993678</v>
+        <v>-3.50044520395318</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9252259725669495</v>
+        <v>0.9362231897874994</v>
       </c>
       <c r="D25" t="n">
-        <v>2.357171044692213</v>
+        <v>-2.380504277825268</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.640485093282372</v>
+        <v>-0.2971953109034763</v>
       </c>
       <c r="F25" t="n">
-        <v>0.811785296246858</v>
+        <v>0.9064627435654217</v>
       </c>
     </row>
     <row r="26">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.160916605230524</v>
+        <v>-0.9038588107005693</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1821738580479545</v>
+        <v>-1.619418553749797</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.202458406402586</v>
+        <v>1.149927172926936</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.945542060158368</v>
+        <v>-2.704714771587992</v>
       </c>
       <c r="F26" t="n">
-        <v>4.666465812681194</v>
+        <v>-4.697491148903103</v>
       </c>
     </row>
     <row r="27">
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.062704815728099</v>
+        <v>-2.991537344210055</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.750931148137865</v>
+        <v>-2.264298062711532</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.022337380979296</v>
+        <v>1.54630675528743</v>
       </c>
       <c r="E27" t="n">
-        <v>3.002609954273342</v>
+        <v>-1.937528635493943</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1581114576680663</v>
+        <v>0.3970519174684744</v>
       </c>
     </row>
     <row r="28">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.957804461930718</v>
+        <v>-0.2440109401508145</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.055816826406201</v>
+        <v>0.750746896700814</v>
       </c>
       <c r="D28" t="n">
-        <v>2.355464498779066</v>
+        <v>-2.105568756024454</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.300981131515607</v>
+        <v>2.691306288738919</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.012568753876822</v>
+        <v>-2.178785275909417</v>
       </c>
     </row>
     <row r="29">
@@ -1862,19 +1862,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.928148798027169</v>
+        <v>1.916438511679566</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.106902402767832</v>
+        <v>2.739860287043964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7623072558103534</v>
+        <v>0.04953331537078996</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.210886650598482</v>
+        <v>-4.081120268288859</v>
       </c>
       <c r="F29" t="n">
-        <v>3.602303252315156</v>
+        <v>-2.524977056122868</v>
       </c>
     </row>
     <row r="30">
@@ -1884,19 +1884,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.7928688718153252</v>
+        <v>2.866881704261273</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.626088043292353</v>
+        <v>-2.246080578069951</v>
       </c>
       <c r="D30" t="n">
-        <v>2.195600025960073</v>
+        <v>-3.569700315753894</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.404138497101357</v>
+        <v>1.565767858969202</v>
       </c>
       <c r="F30" t="n">
-        <v>1.128582073230653</v>
+        <v>0.6363689805642372</v>
       </c>
     </row>
     <row r="31">
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9773252621740174</v>
+        <v>0.7298253545214668</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.421392139328514</v>
+        <v>-0.8489443331728908</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.172872585869463</v>
+        <v>-2.580966639366736</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3500862578108033</v>
+        <v>0.6344749701114366</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9098062392594075</v>
+        <v>-1.562169317543902</v>
       </c>
     </row>
     <row r="32">
@@ -1928,19 +1928,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3110772458684598</v>
+        <v>2.333028378961589</v>
       </c>
       <c r="C32" t="n">
-        <v>2.344664028013054</v>
+        <v>-0.9325492854677396</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.001003355581623</v>
+        <v>3.059116049477041</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.025282880700396</v>
+        <v>-3.629768467012012</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1335915551816653</v>
+        <v>-3.950951627337557</v>
       </c>
     </row>
     <row r="33">
@@ -1950,19 +1950,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.923007146099186</v>
+        <v>0.1134717583810209</v>
       </c>
       <c r="C33" t="n">
-        <v>1.5709697258605</v>
+        <v>-1.821095364413907</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.414079232122752</v>
+        <v>0.5395687600382256</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.347370323534402</v>
+        <v>0.9149712514510724</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.798003189134937</v>
+        <v>-6.458005543488046</v>
       </c>
     </row>
     <row r="34">
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2546814538240425</v>
+        <v>-4.711933687505999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5351824676601419</v>
+        <v>-3.527484063910702</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.139160413890161</v>
+        <v>-0.3964341894284469</v>
       </c>
       <c r="E34" t="n">
-        <v>1.857405755615327</v>
+        <v>3.830337219919782</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.24229807166722</v>
+        <v>0.07487128313714457</v>
       </c>
     </row>
   </sheetData>
